--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Birlasoft Ltd/Pruned_Excel/Pruned_Profit-loss_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Birlasoft Ltd/Pruned_Excel/Pruned_Profit-loss_combined.xlsx
@@ -1071,7 +1071,7 @@
         <v>534.2</v>
       </c>
       <c r="G8">
-        <v>13.50454545454546</v>
+        <v>13.5</v>
       </c>
       <c r="H8">
         <v>305.34</v>
@@ -1148,7 +1148,7 @@
         <v>618.8099999999999</v>
       </c>
       <c r="G9">
-        <v>13.50454545454546</v>
+        <v>13.5</v>
       </c>
       <c r="H9">
         <v>334.01</v>
@@ -1225,7 +1225,7 @@
         <v>723.4</v>
       </c>
       <c r="G10">
-        <v>13.50454545454546</v>
+        <v>13.5</v>
       </c>
       <c r="H10">
         <v>353.67</v>
@@ -1687,7 +1687,7 @@
         <v>1026.88</v>
       </c>
       <c r="G16">
-        <v>13.50454545454546</v>
+        <v>13.5</v>
       </c>
       <c r="H16">
         <v>627.5</v>
@@ -1764,7 +1764,7 @@
         <v>1497.12</v>
       </c>
       <c r="G17">
-        <v>13.50454545454546</v>
+        <v>13.5</v>
       </c>
       <c r="H17">
         <v>943.5</v>
@@ -1841,7 +1841,7 @@
         <v>1652.48</v>
       </c>
       <c r="G18">
-        <v>13.50454545454546</v>
+        <v>13.5</v>
       </c>
       <c r="H18">
         <v>1054.93</v>
@@ -1892,7 +1892,7 @@
         <v>55.42</v>
       </c>
       <c r="X18">
-        <v>4.19625</v>
+        <v>4.2</v>
       </c>
       <c r="Y18">
         <v>175</v>
@@ -1918,7 +1918,7 @@
         <v>2123.51</v>
       </c>
       <c r="G19">
-        <v>13.50454545454546</v>
+        <v>13.5</v>
       </c>
       <c r="H19">
         <v>1374.96</v>
@@ -1969,7 +1969,7 @@
         <v>111.08</v>
       </c>
       <c r="X19">
-        <v>4.19625</v>
+        <v>4.2</v>
       </c>
       <c r="Y19">
         <v>225</v>
@@ -1995,7 +1995,7 @@
         <v>2451.41</v>
       </c>
       <c r="G20">
-        <v>13.50454545454546</v>
+        <v>13.5</v>
       </c>
       <c r="H20">
         <v>1669.35</v>
@@ -2046,7 +2046,7 @@
         <v>124.95</v>
       </c>
       <c r="X20">
-        <v>4.19625</v>
+        <v>4.2</v>
       </c>
       <c r="Y20">
         <v>175</v>
@@ -2072,7 +2072,7 @@
         <v>2742.85</v>
       </c>
       <c r="G21">
-        <v>13.50454545454546</v>
+        <v>13.5</v>
       </c>
       <c r="H21">
         <v>1834.63</v>
@@ -2123,7 +2123,7 @@
         <v>123.97</v>
       </c>
       <c r="X21">
-        <v>4.19625</v>
+        <v>4.2</v>
       </c>
       <c r="Y21">
         <v>325</v>
